--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_100ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_100ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1727,28 +1727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>627.5205726793812</v>
+        <v>744.9828279235614</v>
       </c>
       <c r="AB2" t="n">
-        <v>858.6013317937402</v>
+        <v>1019.318371487797</v>
       </c>
       <c r="AC2" t="n">
-        <v>776.6576257418825</v>
+        <v>922.0360567353202</v>
       </c>
       <c r="AD2" t="n">
-        <v>627520.5726793812</v>
+        <v>744982.8279235614</v>
       </c>
       <c r="AE2" t="n">
-        <v>858601.3317937402</v>
+        <v>1019318.371487797</v>
       </c>
       <c r="AF2" t="n">
         <v>6.631531466305713e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.66666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>776657.6257418825</v>
+        <v>922036.0567353202</v>
       </c>
     </row>
     <row r="3">
@@ -1833,28 +1833,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>273.5702608564148</v>
+        <v>351.81010018164</v>
       </c>
       <c r="AB3" t="n">
-        <v>374.3108999718648</v>
+        <v>481.3620998347401</v>
       </c>
       <c r="AC3" t="n">
-        <v>338.5871930271968</v>
+        <v>435.421576622462</v>
       </c>
       <c r="AD3" t="n">
-        <v>273570.2608564148</v>
+        <v>351810.10018164</v>
       </c>
       <c r="AE3" t="n">
-        <v>374310.8999718648</v>
+        <v>481362.0998347402</v>
       </c>
       <c r="AF3" t="n">
         <v>1.123800680294034e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.96666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>338587.1930271968</v>
+        <v>435421.576622462</v>
       </c>
     </row>
     <row r="4">
@@ -1939,28 +1939,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>273.4385357891234</v>
+        <v>351.6783751143487</v>
       </c>
       <c r="AB4" t="n">
-        <v>374.1306679234968</v>
+        <v>481.1818677863723</v>
       </c>
       <c r="AC4" t="n">
-        <v>338.4241620725679</v>
+        <v>435.2585456678331</v>
       </c>
       <c r="AD4" t="n">
-        <v>273438.5357891234</v>
+        <v>351678.3751143487</v>
       </c>
       <c r="AE4" t="n">
-        <v>374130.6679234969</v>
+        <v>481181.8677863723</v>
       </c>
       <c r="AF4" t="n">
         <v>1.126814156677473e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.92916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>338424.1620725679</v>
+        <v>435258.5456678331</v>
       </c>
     </row>
   </sheetData>
@@ -2236,28 +2236,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>396.3600831869407</v>
+        <v>483.4177057302094</v>
       </c>
       <c r="AB2" t="n">
-        <v>542.3173519891312</v>
+        <v>661.4334318640742</v>
       </c>
       <c r="AC2" t="n">
-        <v>490.5593450624718</v>
+        <v>598.3071534546183</v>
       </c>
       <c r="AD2" t="n">
-        <v>396360.0831869407</v>
+        <v>483417.7057302094</v>
       </c>
       <c r="AE2" t="n">
-        <v>542317.3519891312</v>
+        <v>661433.4318640742</v>
       </c>
       <c r="AF2" t="n">
         <v>9.493745096896051e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.0875</v>
       </c>
       <c r="AH2" t="n">
-        <v>490559.3450624718</v>
+        <v>598307.1534546183</v>
       </c>
     </row>
     <row r="3">
@@ -2342,28 +2342,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>280.005371657357</v>
+        <v>357.4155994394411</v>
       </c>
       <c r="AB3" t="n">
-        <v>383.1157024667659</v>
+        <v>489.0317912164375</v>
       </c>
       <c r="AC3" t="n">
-        <v>346.5516775296026</v>
+        <v>442.3592834231696</v>
       </c>
       <c r="AD3" t="n">
-        <v>280005.371657357</v>
+        <v>357415.5994394411</v>
       </c>
       <c r="AE3" t="n">
-        <v>383115.7024667659</v>
+        <v>489031.7912164375</v>
       </c>
       <c r="AF3" t="n">
         <v>1.18138063606986e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.5375</v>
       </c>
       <c r="AH3" t="n">
-        <v>346551.6775296025</v>
+        <v>442359.2834231696</v>
       </c>
     </row>
   </sheetData>
@@ -2639,28 +2639,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>336.0980567968951</v>
+        <v>429.6187087753796</v>
       </c>
       <c r="AB2" t="n">
-        <v>459.8641889092994</v>
+        <v>587.8232707862397</v>
       </c>
       <c r="AC2" t="n">
-        <v>415.9753961432378</v>
+        <v>531.7222428375425</v>
       </c>
       <c r="AD2" t="n">
-        <v>336098.0567968951</v>
+        <v>429618.7087753796</v>
       </c>
       <c r="AE2" t="n">
-        <v>459864.1889092994</v>
+        <v>587823.2707862398</v>
       </c>
       <c r="AF2" t="n">
         <v>1.286576619117697e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.63333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>415975.3961432378</v>
+        <v>531722.2428375424</v>
       </c>
     </row>
   </sheetData>
@@ -2936,28 +2936,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>303.0559575894518</v>
+        <v>378.8491988095784</v>
       </c>
       <c r="AB2" t="n">
-        <v>414.6545310591387</v>
+        <v>518.3581874583277</v>
       </c>
       <c r="AC2" t="n">
-        <v>375.0804845861433</v>
+        <v>468.8868095675895</v>
       </c>
       <c r="AD2" t="n">
-        <v>303055.9575894518</v>
+        <v>378849.1988095784</v>
       </c>
       <c r="AE2" t="n">
-        <v>414654.5310591387</v>
+        <v>518358.1874583277</v>
       </c>
       <c r="AF2" t="n">
         <v>1.264282001775798e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.41666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>375080.4845861433</v>
+        <v>468886.8095675895</v>
       </c>
     </row>
     <row r="3">
@@ -3042,28 +3042,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>304.0023655400473</v>
+        <v>379.795606760174</v>
       </c>
       <c r="AB3" t="n">
-        <v>415.9494481697155</v>
+        <v>519.6531045689046</v>
       </c>
       <c r="AC3" t="n">
-        <v>376.2518166251143</v>
+        <v>470.0581416065605</v>
       </c>
       <c r="AD3" t="n">
-        <v>304002.3655400473</v>
+        <v>379795.606760174</v>
       </c>
       <c r="AE3" t="n">
-        <v>415949.4481697155</v>
+        <v>519653.1045689046</v>
       </c>
       <c r="AF3" t="n">
         <v>1.264132541792138e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.42083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>376251.8166251142</v>
+        <v>470058.1416065605</v>
       </c>
     </row>
   </sheetData>
@@ -3339,28 +3339,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>389.2852321422887</v>
+        <v>491.0489072452377</v>
       </c>
       <c r="AB2" t="n">
-        <v>532.6372286694389</v>
+        <v>671.874778441786</v>
       </c>
       <c r="AC2" t="n">
-        <v>481.8030791262724</v>
+        <v>607.7519925694754</v>
       </c>
       <c r="AD2" t="n">
-        <v>389285.2321422887</v>
+        <v>491048.9072452377</v>
       </c>
       <c r="AE2" t="n">
-        <v>532637.2286694389</v>
+        <v>671874.7784417861</v>
       </c>
       <c r="AF2" t="n">
         <v>1.268345927203646e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.64583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>481803.0791262724</v>
+        <v>607751.9925694754</v>
       </c>
     </row>
   </sheetData>
@@ -3636,28 +3636,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>442.8626174396132</v>
+        <v>539.8504192013957</v>
       </c>
       <c r="AB2" t="n">
-        <v>605.9441709006582</v>
+        <v>738.6471600709599</v>
       </c>
       <c r="AC2" t="n">
-        <v>548.1137096778837</v>
+        <v>668.151711811587</v>
       </c>
       <c r="AD2" t="n">
-        <v>442862.6174396132</v>
+        <v>539850.4192013957</v>
       </c>
       <c r="AE2" t="n">
-        <v>605944.1709006581</v>
+        <v>738647.1600709599</v>
       </c>
       <c r="AF2" t="n">
         <v>8.670342918880808e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.32916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>548113.7096778837</v>
+        <v>668151.711811587</v>
       </c>
     </row>
     <row r="3">
@@ -3742,28 +3742,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>280.7065968189037</v>
+        <v>348.6017779029866</v>
       </c>
       <c r="AB3" t="n">
-        <v>384.0751496686649</v>
+        <v>476.9723317518972</v>
       </c>
       <c r="AC3" t="n">
-        <v>347.4195564371449</v>
+        <v>431.4507618443674</v>
       </c>
       <c r="AD3" t="n">
-        <v>280706.5968189037</v>
+        <v>348601.7779029866</v>
       </c>
       <c r="AE3" t="n">
-        <v>384075.1496686649</v>
+        <v>476972.3317518972</v>
       </c>
       <c r="AF3" t="n">
         <v>1.16655669165106e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.36666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>347419.5564371449</v>
+        <v>431450.7618443674</v>
       </c>
     </row>
   </sheetData>
@@ -4039,28 +4039,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>440.935562548766</v>
+        <v>551.1424630986036</v>
       </c>
       <c r="AB2" t="n">
-        <v>603.3074893833392</v>
+        <v>754.0974327009374</v>
       </c>
       <c r="AC2" t="n">
-        <v>545.728669343972</v>
+        <v>682.1274321063534</v>
       </c>
       <c r="AD2" t="n">
-        <v>440935.562548766</v>
+        <v>551142.4630986035</v>
       </c>
       <c r="AE2" t="n">
-        <v>603307.4893833392</v>
+        <v>754097.4327009374</v>
       </c>
       <c r="AF2" t="n">
         <v>1.238201722615584e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.2625</v>
       </c>
       <c r="AH2" t="n">
-        <v>545728.669343972</v>
+        <v>682127.4321063533</v>
       </c>
     </row>
   </sheetData>
@@ -4336,28 +4336,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>300.4249336179424</v>
+        <v>377.1324838866868</v>
       </c>
       <c r="AB2" t="n">
-        <v>411.0546479887339</v>
+        <v>516.0093023647102</v>
       </c>
       <c r="AC2" t="n">
-        <v>371.8241693035102</v>
+        <v>466.7620987706258</v>
       </c>
       <c r="AD2" t="n">
-        <v>300424.9336179424</v>
+        <v>377132.4838866868</v>
       </c>
       <c r="AE2" t="n">
-        <v>411054.6479887339</v>
+        <v>516009.3023647101</v>
       </c>
       <c r="AF2" t="n">
         <v>1.181106647987169e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.80833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>371824.1693035102</v>
+        <v>466762.0987706258</v>
       </c>
     </row>
     <row r="3">
@@ -4442,28 +4442,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>289.8717997829714</v>
+        <v>366.4778648252305</v>
       </c>
       <c r="AB3" t="n">
-        <v>396.6153847043201</v>
+        <v>501.4311825162071</v>
       </c>
       <c r="AC3" t="n">
-        <v>358.7629690413276</v>
+        <v>453.5752942199442</v>
       </c>
       <c r="AD3" t="n">
-        <v>289871.7997829714</v>
+        <v>366477.8648252306</v>
       </c>
       <c r="AE3" t="n">
-        <v>396615.3847043201</v>
+        <v>501431.1825162071</v>
       </c>
       <c r="AF3" t="n">
         <v>1.224892835855555e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.24583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>358762.9690413276</v>
+        <v>453575.2942199442</v>
       </c>
     </row>
   </sheetData>
@@ -4739,28 +4739,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>357.1404675888754</v>
+        <v>434.3160366673914</v>
       </c>
       <c r="AB2" t="n">
-        <v>488.655343680533</v>
+        <v>594.2503620395712</v>
       </c>
       <c r="AC2" t="n">
-        <v>442.0187635117445</v>
+        <v>537.5359415221353</v>
       </c>
       <c r="AD2" t="n">
-        <v>357140.4675888754</v>
+        <v>434316.0366673914</v>
       </c>
       <c r="AE2" t="n">
-        <v>488655.343680533</v>
+        <v>594250.3620395712</v>
       </c>
       <c r="AF2" t="n">
         <v>1.033215436877529e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.05833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>442018.7635117444</v>
+        <v>537535.9415221353</v>
       </c>
     </row>
     <row r="3">
@@ -4845,28 +4845,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>279.2212105613191</v>
+        <v>356.3957686099779</v>
       </c>
       <c r="AB3" t="n">
-        <v>382.0427786604209</v>
+        <v>487.636413683805</v>
       </c>
       <c r="AC3" t="n">
-        <v>345.5811520654771</v>
+        <v>441.097078763827</v>
       </c>
       <c r="AD3" t="n">
-        <v>279221.2105613191</v>
+        <v>356395.7686099779</v>
       </c>
       <c r="AE3" t="n">
-        <v>382042.7786604209</v>
+        <v>487636.413683805</v>
       </c>
       <c r="AF3" t="n">
         <v>1.197267576748601e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.72083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>345581.1520654771</v>
+        <v>441097.078763827</v>
       </c>
     </row>
   </sheetData>
@@ -5142,28 +5142,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>548.5018887445906</v>
+        <v>665.5875776282833</v>
       </c>
       <c r="AB2" t="n">
-        <v>750.4844823758581</v>
+        <v>910.6862873625604</v>
       </c>
       <c r="AC2" t="n">
-        <v>678.859296689492</v>
+        <v>823.7716662529087</v>
       </c>
       <c r="AD2" t="n">
-        <v>548501.8887445906</v>
+        <v>665587.5776282833</v>
       </c>
       <c r="AE2" t="n">
-        <v>750484.4823758581</v>
+        <v>910686.2873625604</v>
       </c>
       <c r="AF2" t="n">
         <v>7.290476412903756e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.97916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>678859.296689492</v>
+        <v>823771.6662529088</v>
       </c>
     </row>
     <row r="3">
@@ -5248,28 +5248,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>282.5192989617765</v>
+        <v>350.7918239914704</v>
       </c>
       <c r="AB3" t="n">
-        <v>386.555368711318</v>
+        <v>479.9688494281751</v>
       </c>
       <c r="AC3" t="n">
-        <v>349.6630668553764</v>
+        <v>434.1612960792604</v>
       </c>
       <c r="AD3" t="n">
-        <v>282519.2989617765</v>
+        <v>350791.8239914704</v>
       </c>
       <c r="AE3" t="n">
-        <v>386555.3687113179</v>
+        <v>479968.8494281751</v>
       </c>
       <c r="AF3" t="n">
         <v>1.137757332799718e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.08333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>349663.0668553764</v>
+        <v>434161.2960792604</v>
       </c>
     </row>
     <row r="4">
@@ -5354,28 +5354,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>282.9765714186262</v>
+        <v>351.2490964483201</v>
       </c>
       <c r="AB4" t="n">
-        <v>387.1810290602168</v>
+        <v>480.594509777074</v>
       </c>
       <c r="AC4" t="n">
-        <v>350.2290150586962</v>
+        <v>434.7272442825801</v>
       </c>
       <c r="AD4" t="n">
-        <v>282976.5714186262</v>
+        <v>351249.0964483201</v>
       </c>
       <c r="AE4" t="n">
-        <v>387181.0290602167</v>
+        <v>480594.509777074</v>
       </c>
       <c r="AF4" t="n">
         <v>1.138026524354156e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.07916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>350229.0150586962</v>
+        <v>434727.2442825801</v>
       </c>
     </row>
   </sheetData>
@@ -5651,28 +5651,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>291.4813811351376</v>
+        <v>377.0907282004305</v>
       </c>
       <c r="AB2" t="n">
-        <v>398.8176849200715</v>
+        <v>515.9521703926434</v>
       </c>
       <c r="AC2" t="n">
-        <v>360.7550848154355</v>
+        <v>466.710419393788</v>
       </c>
       <c r="AD2" t="n">
-        <v>291481.3811351376</v>
+        <v>377090.7282004305</v>
       </c>
       <c r="AE2" t="n">
-        <v>398817.6849200716</v>
+        <v>515952.1703926434</v>
       </c>
       <c r="AF2" t="n">
         <v>1.251835685805172e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.95833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>360755.0848154355</v>
+        <v>466710.419393788</v>
       </c>
     </row>
     <row r="3">
@@ -5757,28 +5757,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>291.7291012637085</v>
+        <v>377.3384483290014</v>
       </c>
       <c r="AB3" t="n">
-        <v>399.156626528623</v>
+        <v>516.2911120011948</v>
       </c>
       <c r="AC3" t="n">
-        <v>361.0616783125742</v>
+        <v>467.0170128909267</v>
       </c>
       <c r="AD3" t="n">
-        <v>291729.1012637084</v>
+        <v>377338.4483290014</v>
       </c>
       <c r="AE3" t="n">
-        <v>399156.6265286229</v>
+        <v>516291.1120011949</v>
       </c>
       <c r="AF3" t="n">
         <v>1.253993031311499e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.92916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>361061.6783125742</v>
+        <v>467017.0128909267</v>
       </c>
     </row>
   </sheetData>
@@ -6054,28 +6054,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>320.2632283645622</v>
+        <v>404.8716286823835</v>
       </c>
       <c r="AB2" t="n">
-        <v>438.1982780648544</v>
+        <v>553.9632240388817</v>
       </c>
       <c r="AC2" t="n">
-        <v>396.3772494214899</v>
+        <v>501.0937514288781</v>
       </c>
       <c r="AD2" t="n">
-        <v>320263.2283645622</v>
+        <v>404871.6286823835</v>
       </c>
       <c r="AE2" t="n">
-        <v>438198.2780648544</v>
+        <v>553963.2240388817</v>
       </c>
       <c r="AF2" t="n">
         <v>1.28283668149668e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.70416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>396377.2494214899</v>
+        <v>501093.7514288781</v>
       </c>
     </row>
   </sheetData>
@@ -9844,28 +9844,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>355.7836916720976</v>
+        <v>458.0810024287114</v>
       </c>
       <c r="AB2" t="n">
-        <v>486.7989430144687</v>
+        <v>626.7666366305037</v>
       </c>
       <c r="AC2" t="n">
-        <v>440.3395351197746</v>
+        <v>566.9489085029873</v>
       </c>
       <c r="AD2" t="n">
-        <v>355783.6916720977</v>
+        <v>458081.0024287115</v>
       </c>
       <c r="AE2" t="n">
-        <v>486798.9430144687</v>
+        <v>626766.6366305037</v>
       </c>
       <c r="AF2" t="n">
         <v>1.282366597509637e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.89166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>440339.5351197746</v>
+        <v>566948.9085029872</v>
       </c>
     </row>
   </sheetData>
@@ -10141,28 +10141,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>521.8160492271322</v>
+        <v>658.5476155911856</v>
       </c>
       <c r="AB2" t="n">
-        <v>713.9717394519215</v>
+        <v>901.0539007221979</v>
       </c>
       <c r="AC2" t="n">
-        <v>645.8312787042593</v>
+        <v>815.0585810743631</v>
       </c>
       <c r="AD2" t="n">
-        <v>521816.0492271322</v>
+        <v>658547.6155911856</v>
       </c>
       <c r="AE2" t="n">
-        <v>713971.7394519215</v>
+        <v>901053.900722198</v>
       </c>
       <c r="AF2" t="n">
         <v>1.16991423687912e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.8375</v>
       </c>
       <c r="AH2" t="n">
-        <v>645831.2787042593</v>
+        <v>815058.5810743631</v>
       </c>
     </row>
   </sheetData>
@@ -10438,28 +10438,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>324.6093308461996</v>
+        <v>401.5054925762327</v>
       </c>
       <c r="AB2" t="n">
-        <v>444.1448072167402</v>
+        <v>549.357528115002</v>
       </c>
       <c r="AC2" t="n">
-        <v>401.7562501771258</v>
+        <v>496.9276166598387</v>
       </c>
       <c r="AD2" t="n">
-        <v>324609.3308461995</v>
+        <v>401505.4925762326</v>
       </c>
       <c r="AE2" t="n">
-        <v>444144.8072167402</v>
+        <v>549357.528115002</v>
       </c>
       <c r="AF2" t="n">
         <v>1.114787169906689e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.25833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>401756.2501771257</v>
+        <v>496927.6166598387</v>
       </c>
     </row>
     <row r="3">
@@ -10544,28 +10544,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>279.7695042340855</v>
+        <v>356.6988203530423</v>
       </c>
       <c r="AB3" t="n">
-        <v>382.7929782525095</v>
+        <v>488.051062448365</v>
       </c>
       <c r="AC3" t="n">
-        <v>346.2597536614084</v>
+        <v>441.4721540322606</v>
       </c>
       <c r="AD3" t="n">
-        <v>279769.5042340855</v>
+        <v>356698.8203530423</v>
       </c>
       <c r="AE3" t="n">
-        <v>382792.9782525095</v>
+        <v>488051.062448365</v>
       </c>
       <c r="AF3" t="n">
         <v>1.210306800993157e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.975</v>
       </c>
       <c r="AH3" t="n">
-        <v>346259.7536614084</v>
+        <v>441472.1540322606</v>
       </c>
     </row>
   </sheetData>
@@ -10841,28 +10841,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>493.1019287426956</v>
+        <v>600.167380046474</v>
       </c>
       <c r="AB2" t="n">
-        <v>674.6838130275243</v>
+        <v>821.1754868957049</v>
       </c>
       <c r="AC2" t="n">
-        <v>610.2929368368555</v>
+        <v>742.8036509534126</v>
       </c>
       <c r="AD2" t="n">
-        <v>493101.9287426956</v>
+        <v>600167.380046474</v>
       </c>
       <c r="AE2" t="n">
-        <v>674683.8130275243</v>
+        <v>821175.4868957049</v>
       </c>
       <c r="AF2" t="n">
         <v>7.943697822338669e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.61666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>610292.9368368555</v>
+        <v>742803.6509534125</v>
       </c>
     </row>
     <row r="3">
@@ -10947,28 +10947,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>281.3161736414562</v>
+        <v>349.4031553844712</v>
       </c>
       <c r="AB3" t="n">
-        <v>384.9091995699126</v>
+        <v>478.0688117763437</v>
       </c>
       <c r="AC3" t="n">
-        <v>348.1740057864139</v>
+        <v>432.4425953542001</v>
       </c>
       <c r="AD3" t="n">
-        <v>281316.1736414562</v>
+        <v>349403.1553844712</v>
       </c>
       <c r="AE3" t="n">
-        <v>384909.1995699126</v>
+        <v>478068.8117763437</v>
       </c>
       <c r="AF3" t="n">
         <v>1.152349099268455e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.2125</v>
       </c>
       <c r="AH3" t="n">
-        <v>348174.0057864139</v>
+        <v>432442.5953542001</v>
       </c>
     </row>
   </sheetData>
@@ -11244,28 +11244,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>708.9433889303771</v>
+        <v>889.5026106663393</v>
       </c>
       <c r="AB2" t="n">
-        <v>970.0076211094866</v>
+        <v>1217.056713999301</v>
       </c>
       <c r="AC2" t="n">
-        <v>877.4314551650432</v>
+        <v>1100.902529365034</v>
       </c>
       <c r="AD2" t="n">
-        <v>708943.3889303771</v>
+        <v>889502.6106663393</v>
       </c>
       <c r="AE2" t="n">
-        <v>970007.6211094867</v>
+        <v>1217056.713999301</v>
       </c>
       <c r="AF2" t="n">
         <v>1.029458139274279e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.59583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>877431.4551650432</v>
+        <v>1100902.529365034</v>
       </c>
     </row>
   </sheetData>
@@ -11541,28 +11541,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>306.1764442198167</v>
+        <v>391.1302495456666</v>
       </c>
       <c r="AB2" t="n">
-        <v>418.9241185329581</v>
+        <v>535.1616628771636</v>
       </c>
       <c r="AC2" t="n">
-        <v>378.9425886238649</v>
+        <v>484.0865848762775</v>
       </c>
       <c r="AD2" t="n">
-        <v>306176.4442198167</v>
+        <v>391130.2495456666</v>
       </c>
       <c r="AE2" t="n">
-        <v>418924.1185329581</v>
+        <v>535161.6628771636</v>
       </c>
       <c r="AF2" t="n">
         <v>1.275141357864544e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.9875</v>
       </c>
       <c r="AH2" t="n">
-        <v>378942.5886238649</v>
+        <v>484086.5848762775</v>
       </c>
     </row>
   </sheetData>
@@ -11838,28 +11838,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>293.2754022964848</v>
+        <v>369.7149858894623</v>
       </c>
       <c r="AB2" t="n">
-        <v>401.2723438196547</v>
+        <v>505.8603543679912</v>
       </c>
       <c r="AC2" t="n">
-        <v>362.9754745147777</v>
+        <v>457.5817521265758</v>
       </c>
       <c r="AD2" t="n">
-        <v>293275.4022964848</v>
+        <v>369714.9858894623</v>
       </c>
       <c r="AE2" t="n">
-        <v>401272.3438196547</v>
+        <v>505860.3543679912</v>
       </c>
       <c r="AF2" t="n">
         <v>1.225463732339543e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.7375</v>
       </c>
       <c r="AH2" t="n">
-        <v>362975.4745147777</v>
+        <v>457581.7521265758</v>
       </c>
     </row>
     <row r="3">
@@ -11944,28 +11944,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>289.8928874770707</v>
+        <v>366.3324710700481</v>
       </c>
       <c r="AB3" t="n">
-        <v>396.6442378177103</v>
+        <v>501.2322483660469</v>
       </c>
       <c r="AC3" t="n">
-        <v>358.7890684540714</v>
+        <v>453.3953460658694</v>
       </c>
       <c r="AD3" t="n">
-        <v>289892.8874770707</v>
+        <v>366332.4710700482</v>
       </c>
       <c r="AE3" t="n">
-        <v>396644.2378177103</v>
+        <v>501232.2483660469</v>
       </c>
       <c r="AF3" t="n">
         <v>1.241340372951156e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.5375</v>
       </c>
       <c r="AH3" t="n">
-        <v>358789.0684540714</v>
+        <v>453395.3460658694</v>
       </c>
     </row>
   </sheetData>
